--- a/Assets/06.Table/MonthlyPassAttend2.xlsx
+++ b/Assets/06.Table/MonthlyPassAttend2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DAFB03-4485-4EB1-8DCA-A0FBA487E40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3C89E2-182D-4056-9936-803340AF3AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyPassAttend2" sheetId="1" r:id="rId1"/>
@@ -503,13 +503,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>250000000</v>
+        <v>350000000</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>250000000</v>
+        <v>350000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -523,13 +523,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>50000000000</v>
+        <v>70000000000</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>50000000000</v>
+        <v>70000000000</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -563,13 +563,13 @@
         <v>9010</v>
       </c>
       <c r="D5" s="1">
-        <v>70000</v>
+        <v>110000</v>
       </c>
       <c r="E5" s="1">
         <v>9010</v>
       </c>
       <c r="F5" s="1">
-        <v>70000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -583,13 +583,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>250000000</v>
+        <v>350000000</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>250000000</v>
+        <v>350000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -603,13 +603,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>50000000000</v>
+        <v>70000000000</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>50000000000</v>
+        <v>70000000000</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -643,13 +643,13 @@
         <v>9010</v>
       </c>
       <c r="D9" s="1">
-        <v>70000</v>
+        <v>110000</v>
       </c>
       <c r="E9" s="1">
         <v>9010</v>
       </c>
       <c r="F9" s="1">
-        <v>70000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -663,13 +663,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>250000000</v>
+        <v>350000000</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>250000000</v>
+        <v>350000000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -683,13 +683,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>50000000000</v>
+        <v>70000000000</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>50000000000</v>
+        <v>70000000000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -723,13 +723,13 @@
         <v>9010</v>
       </c>
       <c r="D13" s="1">
-        <v>70000</v>
+        <v>110000</v>
       </c>
       <c r="E13" s="1">
         <v>9010</v>
       </c>
       <c r="F13" s="1">
-        <v>70000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -743,13 +743,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>250000000</v>
+        <v>350000000</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
       </c>
       <c r="F14" s="1">
-        <v>250000000</v>
+        <v>350000000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -763,13 +763,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>50000000000</v>
+        <v>70000000000</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>50000000000</v>
+        <v>70000000000</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -803,13 +803,13 @@
         <v>9010</v>
       </c>
       <c r="D17" s="1">
-        <v>70000</v>
+        <v>110000</v>
       </c>
       <c r="E17" s="1">
         <v>9010</v>
       </c>
       <c r="F17" s="1">
-        <v>70000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -823,13 +823,13 @@
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>250000000</v>
+        <v>350000000</v>
       </c>
       <c r="E18" s="1">
         <v>5</v>
       </c>
       <c r="F18" s="1">
-        <v>250000000</v>
+        <v>350000000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,13 +843,13 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>50000000000</v>
+        <v>70000000000</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>50000000000</v>
+        <v>70000000000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -883,13 +883,13 @@
         <v>9010</v>
       </c>
       <c r="D21" s="1">
-        <v>70000</v>
+        <v>110000</v>
       </c>
       <c r="E21" s="1">
         <v>9010</v>
       </c>
       <c r="F21" s="1">
-        <v>70000</v>
+        <v>110000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MonthlyPassAttend2.xlsx
+++ b/Assets/06.Table/MonthlyPassAttend2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3C89E2-182D-4056-9936-803340AF3AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70959119-2FF6-4DB1-B103-65CB4B9A27B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -160,9 +160,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +200,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +306,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,7 +448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -500,16 +500,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>9068</v>
       </c>
       <c r="D2" s="1">
-        <v>350000000</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>9068</v>
       </c>
       <c r="F2" s="1">
-        <v>350000000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -520,16 +520,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>9041</v>
       </c>
       <c r="D3" s="1">
-        <v>70000000000</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>9041</v>
       </c>
       <c r="F3" s="1">
-        <v>70000000000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -540,16 +540,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>30</v>
+        <v>9053</v>
       </c>
       <c r="D4" s="1">
-        <v>150000</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>30</v>
+        <v>9053</v>
       </c>
       <c r="F4" s="1">
-        <v>150000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -560,16 +560,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>9010</v>
+        <v>9057</v>
       </c>
       <c r="D5" s="1">
-        <v>110000</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>9010</v>
+        <v>9057</v>
       </c>
       <c r="F5" s="1">
-        <v>110000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -580,16 +580,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>9055</v>
       </c>
       <c r="D6" s="1">
-        <v>350000000</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>9055</v>
       </c>
       <c r="F6" s="1">
-        <v>350000000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -600,16 +600,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>9068</v>
       </c>
       <c r="D7" s="1">
-        <v>70000000000</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>9068</v>
       </c>
       <c r="F7" s="1">
-        <v>70000000000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -620,16 +620,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>30</v>
+        <v>9041</v>
       </c>
       <c r="D8" s="1">
-        <v>150000</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>30</v>
+        <v>9041</v>
       </c>
       <c r="F8" s="1">
-        <v>150000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -640,16 +640,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>9010</v>
+        <v>9053</v>
       </c>
       <c r="D9" s="1">
-        <v>110000</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>9010</v>
+        <v>9053</v>
       </c>
       <c r="F9" s="1">
-        <v>110000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -660,16 +660,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>9057</v>
       </c>
       <c r="D10" s="1">
-        <v>350000000</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>5</v>
+        <v>9057</v>
       </c>
       <c r="F10" s="1">
-        <v>350000000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -680,16 +680,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>9055</v>
       </c>
       <c r="D11" s="1">
-        <v>70000000000</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>9055</v>
       </c>
       <c r="F11" s="1">
-        <v>70000000000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -700,16 +700,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>30</v>
+        <v>9068</v>
       </c>
       <c r="D12" s="1">
-        <v>150000</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>30</v>
+        <v>9068</v>
       </c>
       <c r="F12" s="1">
-        <v>150000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -720,16 +720,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>9010</v>
+        <v>9041</v>
       </c>
       <c r="D13" s="1">
-        <v>110000</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>9010</v>
+        <v>9041</v>
       </c>
       <c r="F13" s="1">
-        <v>110000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -740,16 +740,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>9053</v>
       </c>
       <c r="D14" s="1">
-        <v>350000000</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>5</v>
+        <v>9053</v>
       </c>
       <c r="F14" s="1">
-        <v>350000000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -760,16 +760,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>9057</v>
       </c>
       <c r="D15" s="1">
-        <v>70000000000</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>9057</v>
       </c>
       <c r="F15" s="1">
-        <v>70000000000</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -780,116 +780,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>30</v>
+        <v>9055</v>
       </c>
       <c r="D16" s="1">
-        <v>150000</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>30</v>
+        <v>9055</v>
       </c>
       <c r="F16" s="1">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>9010</v>
-      </c>
-      <c r="D17" s="1">
-        <v>110000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>9010</v>
-      </c>
-      <c r="F17" s="1">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>350000000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1">
-        <v>350000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>70000000000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>70000000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1">
-        <v>150000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>9010</v>
-      </c>
-      <c r="D21" s="1">
-        <v>110000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>9010</v>
-      </c>
-      <c r="F21" s="1">
-        <v>110000</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
